--- a/Árjegyzék (eddigi).xlsx
+++ b/Árjegyzék (eddigi).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIÁK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIÁK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Eszköz neve:</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>https://www.arukereso.hu/monitor-c3126/lg/22mk430h-b-p402560799/?sgst=1</t>
+  </si>
+  <si>
+    <t>Eszköz össz ár</t>
+  </si>
+  <si>
+    <t>Összköltség:</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -241,6 +247,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -522,9 +529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -532,9 +541,10 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -550,8 +560,11 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -567,8 +580,12 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q2" s="10">
+        <f>PRODUCT(C2)*(D2)</f>
+        <v>4030000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -584,8 +601,12 @@
       <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:Q12" si="0">PRODUCT(C3)*(D3)</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -601,8 +622,12 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q4" s="10">
+        <f t="shared" si="0"/>
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -618,8 +643,12 @@
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q5" s="10">
+        <f t="shared" si="0"/>
+        <v>4470000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -635,8 +664,12 @@
       <c r="E6" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q6" s="10">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -652,8 +685,12 @@
       <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q7" s="10">
+        <f t="shared" si="0"/>
+        <v>88000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -669,8 +706,12 @@
       <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q8" s="10">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -686,8 +727,12 @@
       <c r="E9" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q9" s="10">
+        <f t="shared" si="0"/>
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -703,8 +748,12 @@
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q10" s="10">
+        <f t="shared" si="0"/>
+        <v>1089000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
@@ -720,8 +769,12 @@
       <c r="E11" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q11" s="10">
+        <f t="shared" si="0"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -737,20 +790,34 @@
       <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="Q12" s="10">
+        <f t="shared" si="0"/>
+        <v>342000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="10">
+        <f>SUM(Q2:Q12)</f>
+        <v>12923000</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Árjegyzék (eddigi).xlsx
+++ b/Árjegyzék (eddigi).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Eszköz neve:</t>
   </si>
@@ -95,15 +95,6 @@
     <t>https://www.arukereso.hu/nyomtato-c3134/hp/deskjet-2723e-26k70b-p665376816/#termek-leiras</t>
   </si>
   <si>
-    <t>Vezetékes telefon</t>
-  </si>
-  <si>
-    <t>https://www.arukereso.hu/telefonkeszulek-c89/maxcom/kxt400-vezetekes-telefon-szurke-pl-1066634-kxt400grsr-p711230859/#termek-leiras</t>
-  </si>
-  <si>
-    <t>Maxcom KXT400 Vezetékes telefon, Szürke (PL_1066634_KXT400GRSR)</t>
-  </si>
-  <si>
     <t>Szerver</t>
   </si>
   <si>
@@ -144,6 +135,9 @@
   </si>
   <si>
     <t>Összköltség:</t>
+  </si>
+  <si>
+    <t>2022. jan. árak</t>
   </si>
 </sst>
 </file>
@@ -532,7 +526,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -575,14 +569,14 @@
         <v>806000</v>
       </c>
       <c r="D2" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="10">
         <f>PRODUCT(C2)*(D2)</f>
-        <v>4030000</v>
+        <v>2418000</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -617,14 +611,14 @@
         <v>260000</v>
       </c>
       <c r="D4" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q4" s="10">
         <f t="shared" si="0"/>
-        <v>1560000</v>
+        <v>1040000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -690,33 +684,23 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5">
-        <v>5000</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="7"/>
       <c r="Q8" s="10">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5">
         <v>220000</v>
@@ -725,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="10">
         <f t="shared" si="0"/>
@@ -734,10 +718,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="5">
         <v>121000</v>
@@ -746,7 +730,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="10">
         <f t="shared" si="0"/>
@@ -755,10 +739,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5">
         <v>6000</v>
@@ -767,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="10">
         <f t="shared" si="0"/>
@@ -776,10 +760,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5">
         <v>38000</v>
@@ -788,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="10">
         <f t="shared" si="0"/>
@@ -796,7 +780,9 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -812,11 +798,11 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="10">
         <f>SUM(Q2:Q12)</f>
-        <v>12923000</v>
+        <v>10771000</v>
       </c>
     </row>
   </sheetData>
